--- a/工時系統_SP及API.xlsx
+++ b/工時系統_SP及API.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,46 @@
   </si>
   <si>
     <t>撤回並刪除簽核申請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送簽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填報</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管單筆簽核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管批次簽核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signbatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簽核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,25 +489,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -783,427 +823,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="89.44140625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="89.44140625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>18</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+    <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="B21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="21"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F17">
-    <sortCondition ref="B5"/>
+  <sortState ref="A2:G20">
+    <sortCondition ref="C8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工時系統_SP及API.xlsx
+++ b/工時系統_SP及API.xlsx
@@ -9,12 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="11" r:id="rId1"/>
+    <sheet name="Term" sheetId="16" r:id="rId1"/>
+    <sheet name="SP" sheetId="13" r:id="rId2"/>
+    <sheet name="Overview" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="dddd" localSheetId="0">#REF!</definedName>
+    <definedName name="dddd">#REF!</definedName>
+    <definedName name="應收帳款立帳作業表頭" localSheetId="1">#REF!</definedName>
+    <definedName name="應收帳款立帳作業表頭" localSheetId="0">#REF!</definedName>
     <definedName name="應收帳款立帳作業表頭">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="107">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +349,118 @@
   </si>
   <si>
     <t>簽核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳筆數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發催促同仁填寫工時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpID
+WorkingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳資料主鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取員工單日假單、加班單&amp;判斷員工單日工時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpID
+WorkDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason, Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得新FlowID流水代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApproveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpID
+StartDate
+EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowUnid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簽核表單編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（工時填報之）工作日代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作類型代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定義</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +505,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +567,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +632,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,9 +959,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="24" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="24" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="24" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="24" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="24" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="24" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="24" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="89.44140625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" s="13" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>18</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>18</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>

--- a/工時系統_SP及API.xlsx
+++ b/工時系統_SP及API.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,10 @@
   </si>
   <si>
     <t>定義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,8 +1048,8 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1106,9 @@
       <c r="A2" s="10">
         <v>16</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="11" t="s">
         <v>58</v>
       </c>

--- a/工時系統_SP及API.xlsx
+++ b/工時系統_SP及API.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,10 @@
   </si>
   <si>
     <t>排程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1205,7 +1209,9 @@
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
